--- a/UV-K5 Menu_RU.xlsx
+++ b/UV-K5 Menu_RU.xlsx
@@ -331,9 +331,6 @@
     <t>Scan resume method</t>
   </si>
   <si>
-    <t>Метод сканирования</t>
-  </si>
-  <si>
     <t xml:space="preserve">Показывать в канальном режиме Частоту/Номер канала/Название канала </t>
   </si>
   <si>
@@ -346,25 +343,12 @@
     <t>Автоматическая блокировка клавиатуры</t>
   </si>
   <si>
-    <t>Вкл сканера листа 1</t>
-  </si>
-  <si>
-    <t>Вкл сканера листа 2</t>
-  </si>
-  <si>
     <t>Tail Tone Elimination</t>
   </si>
   <si>
-    <t>Tail tone elimination in communication through -repeater</t>
-  </si>
-  <si>
     <t>Repeater STR</t>
   </si>
   <si>
-    <t>Чувствит микрофона</t>
-  </si>
-  <si>
     <t>Scan List Select</t>
   </si>
   <si>
@@ -630,6 +614,21 @@
   </si>
   <si>
     <t>SITE</t>
+  </si>
+  <si>
+    <t>Вкл канала в лист сканирования 1</t>
+  </si>
+  <si>
+    <t>Вкл канала в лист сканирования 2</t>
+  </si>
+  <si>
+    <t>Tail tone elimination in communication through repeater</t>
+  </si>
+  <si>
+    <t>Чувствительность микрофона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод продолжения сканирования: TO(time out), CO(carrier out), SE(search end) </t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1071,7 +1072,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -1079,97 +1080,97 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>18</v>
@@ -1184,62 +1185,62 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1271,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>55</v>
@@ -1287,7 +1288,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>56</v>
@@ -1402,7 +1403,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>62</v>
@@ -1419,7 +1420,7 @@
         <v>75</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>63</v>
@@ -1450,7 +1451,7 @@
         <v>78</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>79</v>
@@ -1467,7 +1468,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>80</v>
@@ -1501,7 +1502,7 @@
         <v>84</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>83</v>
@@ -1518,7 +1519,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>86</v>
@@ -1535,7 +1536,7 @@
         <v>87</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>88</v>
@@ -1552,7 +1553,7 @@
         <v>89</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>90</v>
@@ -1569,7 +1570,7 @@
         <v>91</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>92</v>
@@ -1586,10 +1587,10 @@
         <v>93</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,13 +1601,13 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1651,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1702,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,10 +1725,10 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,10 +1739,10 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1752,10 +1753,10 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,13 +1767,13 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,10 +1784,10 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1797,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,7 +1809,7 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,7 +1820,7 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,10 +1864,10 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,18 +1878,18 @@
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B56" s="8">
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,13 +1900,13 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1916,13 +1917,13 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1933,7 +1934,7 @@
         <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,7 +1948,7 @@
         <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,7 +1959,7 @@
         <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,7 +1970,7 @@
         <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,40 +1986,40 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B65" s="8">
         <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B66" s="8">
         <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B67" s="8">
         <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B68" s="8">
         <v>55</v>
@@ -2026,7 +2027,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B69" s="8">
         <v>56</v>
@@ -2034,7 +2035,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B70" s="8">
         <v>57</v>
